--- a/results/CIFAR100/simplecnn/noise_0.05/Adam/runs_and_aggregate.xlsx
+++ b/results/CIFAR100/simplecnn/noise_0.05/Adam/runs_and_aggregate.xlsx
@@ -487,7 +487,7 @@
         <v>13.71</v>
       </c>
       <c r="F2" t="n">
-        <v>35.79397416114807</v>
+        <v>30.23210453987122</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>19.96</v>
       </c>
       <c r="F3" t="n">
-        <v>35.30736184120178</v>
+        <v>29.65205216407776</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>23.79</v>
       </c>
       <c r="F4" t="n">
-        <v>35.72981810569763</v>
+        <v>29.72540855407715</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>26.23</v>
       </c>
       <c r="F5" t="n">
-        <v>37.86707210540772</v>
+        <v>29.6457314491272</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>28.55</v>
       </c>
       <c r="F6" t="n">
-        <v>39.56730079650879</v>
+        <v>29.95413899421692</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>30.76</v>
       </c>
       <c r="F7" t="n">
-        <v>36.00474715232849</v>
+        <v>30.03920912742615</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>32.14</v>
       </c>
       <c r="F8" t="n">
-        <v>35.73132014274597</v>
+        <v>29.79284834861756</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>33.52</v>
       </c>
       <c r="F9" t="n">
-        <v>36.12387537956238</v>
+        <v>29.85354518890381</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>34.43</v>
       </c>
       <c r="F10" t="n">
-        <v>35.21066570281982</v>
+        <v>29.71895694732666</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>35.75</v>
       </c>
       <c r="F11" t="n">
-        <v>34.97700262069702</v>
+        <v>30.161936044693</v>
       </c>
     </row>
     <row r="12">
@@ -687,7 +687,7 @@
         <v>36.69</v>
       </c>
       <c r="F12" t="n">
-        <v>34.55753231048584</v>
+        <v>29.85380482673645</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +707,7 @@
         <v>37.05</v>
       </c>
       <c r="F13" t="n">
-        <v>35.32974433898926</v>
+        <v>29.6971070766449</v>
       </c>
     </row>
     <row r="14">
@@ -727,7 +727,7 @@
         <v>37.31</v>
       </c>
       <c r="F14" t="n">
-        <v>36.61852860450745</v>
+        <v>29.79974770545959</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +747,7 @@
         <v>37.74</v>
       </c>
       <c r="F15" t="n">
-        <v>35.76639366149902</v>
+        <v>29.88181185722351</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>37.27</v>
       </c>
       <c r="F16" t="n">
-        <v>35.09418392181396</v>
+        <v>29.89919328689575</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         <v>37.88</v>
       </c>
       <c r="F17" t="n">
-        <v>34.98920345306396</v>
+        <v>29.8801155090332</v>
       </c>
     </row>
     <row r="18">
@@ -807,7 +807,7 @@
         <v>38.71</v>
       </c>
       <c r="F18" t="n">
-        <v>35.09296774864197</v>
+        <v>29.81754326820373</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         <v>39.64</v>
       </c>
       <c r="F19" t="n">
-        <v>35.29113411903381</v>
+        <v>29.78310918807984</v>
       </c>
     </row>
     <row r="20">
@@ -847,7 +847,7 @@
         <v>39.61</v>
       </c>
       <c r="F20" t="n">
-        <v>35.14573001861572</v>
+        <v>29.93346691131592</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +867,7 @@
         <v>39.78</v>
       </c>
       <c r="F21" t="n">
-        <v>36.34551048278809</v>
+        <v>30.20338106155396</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
         <v>14.49</v>
       </c>
       <c r="F2" t="n">
-        <v>35.7420175075531</v>
+        <v>30.2936327457428</v>
       </c>
     </row>
     <row r="3">
@@ -958,7 +958,7 @@
         <v>19.82</v>
       </c>
       <c r="F3" t="n">
-        <v>35.34104037284851</v>
+        <v>29.76337814331055</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +978,7 @@
         <v>24.49</v>
       </c>
       <c r="F4" t="n">
-        <v>35.26747441291809</v>
+        <v>29.82246732711792</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +998,7 @@
         <v>26.06</v>
       </c>
       <c r="F5" t="n">
-        <v>35.2110903263092</v>
+        <v>29.64490723609924</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1018,7 @@
         <v>28.36</v>
       </c>
       <c r="F6" t="n">
-        <v>35.17792654037476</v>
+        <v>29.84499406814575</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1038,7 @@
         <v>30.13</v>
       </c>
       <c r="F7" t="n">
-        <v>34.97399425506592</v>
+        <v>29.66664791107178</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>31.17</v>
       </c>
       <c r="F8" t="n">
-        <v>35.36511254310608</v>
+        <v>29.86287498474121</v>
       </c>
     </row>
     <row r="9">
@@ -1078,7 +1078,7 @@
         <v>33.02</v>
       </c>
       <c r="F9" t="n">
-        <v>34.17960000038147</v>
+        <v>29.66117691993713</v>
       </c>
     </row>
     <row r="10">
@@ -1098,7 +1098,7 @@
         <v>33.61</v>
       </c>
       <c r="F10" t="n">
-        <v>34.42813110351562</v>
+        <v>29.88728880882263</v>
       </c>
     </row>
     <row r="11">
@@ -1118,7 +1118,7 @@
         <v>34.67</v>
       </c>
       <c r="F11" t="n">
-        <v>34.93499350547791</v>
+        <v>29.92850255966187</v>
       </c>
     </row>
     <row r="12">
@@ -1138,7 +1138,7 @@
         <v>35.68</v>
       </c>
       <c r="F12" t="n">
-        <v>36.81906628608704</v>
+        <v>29.71263527870178</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>36</v>
       </c>
       <c r="F13" t="n">
-        <v>37.03310322761536</v>
+        <v>29.60158276557922</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>36.49</v>
       </c>
       <c r="F14" t="n">
-        <v>36.02809643745422</v>
+        <v>29.68245768547058</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
         <v>37.36</v>
       </c>
       <c r="F15" t="n">
-        <v>36.3168842792511</v>
+        <v>29.65557599067688</v>
       </c>
     </row>
     <row r="16">
@@ -1218,7 +1218,7 @@
         <v>37.16</v>
       </c>
       <c r="F16" t="n">
-        <v>35.95021986961365</v>
+        <v>29.66921329498291</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1238,7 @@
         <v>38.66</v>
       </c>
       <c r="F17" t="n">
-        <v>36.00903725624084</v>
+        <v>29.84323382377625</v>
       </c>
     </row>
     <row r="18">
@@ -1258,7 +1258,7 @@
         <v>38.77</v>
       </c>
       <c r="F18" t="n">
-        <v>36.06752634048462</v>
+        <v>29.9485890865326</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         <v>39.19</v>
       </c>
       <c r="F19" t="n">
-        <v>36.02186703681946</v>
+        <v>29.89292907714844</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1298,7 @@
         <v>39.89</v>
       </c>
       <c r="F20" t="n">
-        <v>36.3602077960968</v>
+        <v>29.92488503456116</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>39.98</v>
       </c>
       <c r="F21" t="n">
-        <v>36.23950958251953</v>
+        <v>30.16585803031921</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1389,7 @@
         <v>14.29</v>
       </c>
       <c r="F2" t="n">
-        <v>35.60582208633423</v>
+        <v>30.25470042228699</v>
       </c>
     </row>
     <row r="3">
@@ -1409,7 +1409,7 @@
         <v>20.3</v>
       </c>
       <c r="F3" t="n">
-        <v>35.08899998664856</v>
+        <v>29.97967147827148</v>
       </c>
     </row>
     <row r="4">
@@ -1429,7 +1429,7 @@
         <v>24.2</v>
       </c>
       <c r="F4" t="n">
-        <v>35.37866902351379</v>
+        <v>29.66020727157593</v>
       </c>
     </row>
     <row r="5">
@@ -1449,7 +1449,7 @@
         <v>26.79</v>
       </c>
       <c r="F5" t="n">
-        <v>35.11517357826233</v>
+        <v>29.62090754508972</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1469,7 @@
         <v>28.78</v>
       </c>
       <c r="F6" t="n">
-        <v>34.99547910690308</v>
+        <v>29.68105697631836</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1489,7 @@
         <v>31.2</v>
       </c>
       <c r="F7" t="n">
-        <v>34.32639098167419</v>
+        <v>29.84277629852295</v>
       </c>
     </row>
     <row r="8">
@@ -1509,7 +1509,7 @@
         <v>32.41</v>
       </c>
       <c r="F8" t="n">
-        <v>34.26281380653381</v>
+        <v>29.92955422401428</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>33.69</v>
       </c>
       <c r="F9" t="n">
-        <v>34.20658946037292</v>
+        <v>29.77686142921448</v>
       </c>
     </row>
     <row r="10">
@@ -1549,7 +1549,7 @@
         <v>34.7</v>
       </c>
       <c r="F10" t="n">
-        <v>35.13509082794189</v>
+        <v>29.67220044136048</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1569,7 @@
         <v>35.74</v>
       </c>
       <c r="F11" t="n">
-        <v>36.90370941162109</v>
+        <v>29.9480185508728</v>
       </c>
     </row>
     <row r="12">
@@ -1589,7 +1589,7 @@
         <v>36.82</v>
       </c>
       <c r="F12" t="n">
-        <v>35.99850726127625</v>
+        <v>29.84974384307861</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>37.15</v>
       </c>
       <c r="F13" t="n">
-        <v>35.14496207237244</v>
+        <v>29.65391945838928</v>
       </c>
     </row>
     <row r="14">
@@ -1629,7 +1629,7 @@
         <v>37.97</v>
       </c>
       <c r="F14" t="n">
-        <v>34.73420476913452</v>
+        <v>29.75651860237122</v>
       </c>
     </row>
     <row r="15">
@@ -1649,7 +1649,7 @@
         <v>38.11</v>
       </c>
       <c r="F15" t="n">
-        <v>35.09216523170471</v>
+        <v>29.65123081207276</v>
       </c>
     </row>
     <row r="16">
@@ -1669,7 +1669,7 @@
         <v>38.08</v>
       </c>
       <c r="F16" t="n">
-        <v>34.90315723419189</v>
+        <v>29.756352186203</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         <v>38.64</v>
       </c>
       <c r="F17" t="n">
-        <v>34.91124939918518</v>
+        <v>29.5340564250946</v>
       </c>
     </row>
     <row r="18">
@@ -1709,7 +1709,7 @@
         <v>39.31</v>
       </c>
       <c r="F18" t="n">
-        <v>34.87498378753662</v>
+        <v>29.72342681884766</v>
       </c>
     </row>
     <row r="19">
@@ -1729,7 +1729,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="n">
-        <v>34.96770429611206</v>
+        <v>29.78702688217163</v>
       </c>
     </row>
     <row r="20">
@@ -1749,7 +1749,7 @@
         <v>40.2</v>
       </c>
       <c r="F20" t="n">
-        <v>35.13070821762085</v>
+        <v>29.68014740943909</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1769,7 @@
         <v>40.77</v>
       </c>
       <c r="F21" t="n">
-        <v>35.75753378868103</v>
+        <v>29.81495952606201</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1840,7 @@
         <v>14.31</v>
       </c>
       <c r="F2" t="n">
-        <v>35.69346499443054</v>
+        <v>30.07565569877625</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1860,7 @@
         <v>20.06</v>
       </c>
       <c r="F3" t="n">
-        <v>35.2732527256012</v>
+        <v>29.66848754882812</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1880,7 @@
         <v>24.16</v>
       </c>
       <c r="F4" t="n">
-        <v>34.85867261886597</v>
+        <v>29.83465147018433</v>
       </c>
     </row>
     <row r="5">
@@ -1900,7 +1900,7 @@
         <v>27.24</v>
       </c>
       <c r="F5" t="n">
-        <v>34.98826217651367</v>
+        <v>29.66834211349488</v>
       </c>
     </row>
     <row r="6">
@@ -1920,7 +1920,7 @@
         <v>28.45</v>
       </c>
       <c r="F6" t="n">
-        <v>34.20301985740662</v>
+        <v>30.00508165359497</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1940,7 @@
         <v>29.99</v>
       </c>
       <c r="F7" t="n">
-        <v>34.2016658782959</v>
+        <v>29.82563090324402</v>
       </c>
     </row>
     <row r="8">
@@ -1960,7 +1960,7 @@
         <v>32.25</v>
       </c>
       <c r="F8" t="n">
-        <v>34.12105941772461</v>
+        <v>29.87941312789917</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +1980,7 @@
         <v>33.03</v>
       </c>
       <c r="F9" t="n">
-        <v>35.7844603061676</v>
+        <v>29.7331235408783</v>
       </c>
     </row>
     <row r="10">
@@ -2000,7 +2000,7 @@
         <v>34.16</v>
       </c>
       <c r="F10" t="n">
-        <v>36.10708904266357</v>
+        <v>29.84268403053284</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +2020,7 @@
         <v>34.46</v>
       </c>
       <c r="F11" t="n">
-        <v>36.97195291519165</v>
+        <v>30.00035500526428</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2040,7 @@
         <v>35.33</v>
       </c>
       <c r="F12" t="n">
-        <v>35.1170871257782</v>
+        <v>29.91219663619995</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         <v>36.64</v>
       </c>
       <c r="F13" t="n">
-        <v>34.8097357749939</v>
+        <v>29.87175893783569</v>
       </c>
     </row>
     <row r="14">
@@ -2080,7 +2080,7 @@
         <v>36.79</v>
       </c>
       <c r="F14" t="n">
-        <v>34.91214513778687</v>
+        <v>29.96086812019348</v>
       </c>
     </row>
     <row r="15">
@@ -2100,7 +2100,7 @@
         <v>37.49</v>
       </c>
       <c r="F15" t="n">
-        <v>34.74068737030029</v>
+        <v>29.88192677497864</v>
       </c>
     </row>
     <row r="16">
@@ -2120,7 +2120,7 @@
         <v>37.81</v>
       </c>
       <c r="F16" t="n">
-        <v>35.10274457931519</v>
+        <v>29.85164546966553</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +2140,7 @@
         <v>38.27</v>
       </c>
       <c r="F17" t="n">
-        <v>34.87111306190491</v>
+        <v>29.50654721260071</v>
       </c>
     </row>
     <row r="18">
@@ -2160,7 +2160,7 @@
         <v>38.34</v>
       </c>
       <c r="F18" t="n">
-        <v>34.78214979171753</v>
+        <v>29.85675668716431</v>
       </c>
     </row>
     <row r="19">
@@ -2180,7 +2180,7 @@
         <v>39.2</v>
       </c>
       <c r="F19" t="n">
-        <v>34.99777841567993</v>
+        <v>29.82875990867615</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         <v>39.57</v>
       </c>
       <c r="F20" t="n">
-        <v>34.9869909286499</v>
+        <v>29.62727069854736</v>
       </c>
     </row>
     <row r="21">
@@ -2220,7 +2220,7 @@
         <v>39.42</v>
       </c>
       <c r="F21" t="n">
-        <v>35.83202576637268</v>
+        <v>30.08136391639709</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2291,7 @@
         <v>13.92</v>
       </c>
       <c r="F2" t="n">
-        <v>35.67161250114441</v>
+        <v>30.30006098747253</v>
       </c>
     </row>
     <row r="3">
@@ -2311,7 +2311,7 @@
         <v>21.56</v>
       </c>
       <c r="F3" t="n">
-        <v>35.09763121604919</v>
+        <v>30.76500272750854</v>
       </c>
     </row>
     <row r="4">
@@ -2331,7 +2331,7 @@
         <v>24.83</v>
       </c>
       <c r="F4" t="n">
-        <v>34.84850645065308</v>
+        <v>30.83791518211365</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         <v>27.06</v>
       </c>
       <c r="F5" t="n">
-        <v>34.12346220016479</v>
+        <v>30.52731418609619</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v>29.05</v>
       </c>
       <c r="F6" t="n">
-        <v>34.35273742675781</v>
+        <v>30.65078496932984</v>
       </c>
     </row>
     <row r="7">
@@ -2391,7 +2391,7 @@
         <v>31.15</v>
       </c>
       <c r="F7" t="n">
-        <v>34.37617492675781</v>
+        <v>30.49234676361084</v>
       </c>
     </row>
     <row r="8">
@@ -2411,7 +2411,7 @@
         <v>33.37</v>
       </c>
       <c r="F8" t="n">
-        <v>36.31577181816101</v>
+        <v>30.81153440475464</v>
       </c>
     </row>
     <row r="9">
@@ -2431,7 +2431,7 @@
         <v>34.41</v>
       </c>
       <c r="F9" t="n">
-        <v>36.27592444419861</v>
+        <v>30.13240361213684</v>
       </c>
     </row>
     <row r="10">
@@ -2451,7 +2451,7 @@
         <v>35.28</v>
       </c>
       <c r="F10" t="n">
-        <v>34.87527513504028</v>
+        <v>29.94280290603638</v>
       </c>
     </row>
     <row r="11">
@@ -2471,7 +2471,7 @@
         <v>36.37</v>
       </c>
       <c r="F11" t="n">
-        <v>35.948970079422</v>
+        <v>30.03670763969421</v>
       </c>
     </row>
     <row r="12">
@@ -2491,7 +2491,7 @@
         <v>36.21</v>
       </c>
       <c r="F12" t="n">
-        <v>35.08477807044983</v>
+        <v>29.84545993804932</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +2511,7 @@
         <v>36.94</v>
       </c>
       <c r="F13" t="n">
-        <v>34.88621973991394</v>
+        <v>29.74356484413147</v>
       </c>
     </row>
     <row r="14">
@@ -2531,7 +2531,7 @@
         <v>37.75</v>
       </c>
       <c r="F14" t="n">
-        <v>34.82903647422791</v>
+        <v>29.88382577896118</v>
       </c>
     </row>
     <row r="15">
@@ -2551,7 +2551,7 @@
         <v>38.78</v>
       </c>
       <c r="F15" t="n">
-        <v>34.97835040092468</v>
+        <v>29.63089942932129</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +2571,7 @@
         <v>38.73</v>
       </c>
       <c r="F16" t="n">
-        <v>35.03840303421021</v>
+        <v>29.82643055915833</v>
       </c>
     </row>
     <row r="17">
@@ -2591,7 +2591,7 @@
         <v>39.23</v>
       </c>
       <c r="F17" t="n">
-        <v>35.53274011611938</v>
+        <v>29.81170177459717</v>
       </c>
     </row>
     <row r="18">
@@ -2611,7 +2611,7 @@
         <v>39.4</v>
       </c>
       <c r="F18" t="n">
-        <v>34.96339964866638</v>
+        <v>29.80436182022095</v>
       </c>
     </row>
     <row r="19">
@@ -2631,7 +2631,7 @@
         <v>40.3</v>
       </c>
       <c r="F19" t="n">
-        <v>34.83305692672729</v>
+        <v>29.78512978553772</v>
       </c>
     </row>
     <row r="20">
@@ -2651,7 +2651,7 @@
         <v>41.13</v>
       </c>
       <c r="F20" t="n">
-        <v>34.93483710289001</v>
+        <v>29.87981796264648</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +2671,7 @@
         <v>41.01</v>
       </c>
       <c r="F21" t="n">
-        <v>35.45880961418152</v>
+        <v>30.15430998802185</v>
       </c>
     </row>
   </sheetData>
